--- a/biology/Botanique/Christine_D._Bacon/Christine_D._Bacon.xlsx
+++ b/biology/Botanique/Christine_D._Bacon/Christine_D._Bacon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Bacon est une botaniste Étasunienne, et chercheuse dans le domaine de la génétique des plantes.
-Cette botaniste s’intéresse beaucoup aux Arecaceae , elle a travaillé sur les palmiers , entre autres, sur les Lanonia[1] , les Mauritiella, et surtout sur le genre Saribus[2] (initialement crée par Carl Ludwig Blume) qu'elle a  « ressuscité » et redéfini, avec William J. Baker, pour inclure une partie des Livistona et du monotypique Pritchardiopsis (Pritchardiopsis jeanneneyi Becc.)[3],[4].
+Cette botaniste s’intéresse beaucoup aux Arecaceae , elle a travaillé sur les palmiers , entre autres, sur les Lanonia , les Mauritiella, et surtout sur le genre Saribus (initialement crée par Carl Ludwig Blume) qu'elle a  « ressuscité » et redéfini, avec William J. Baker, pour inclure une partie des Livistona et du monotypique Pritchardiopsis (Pritchardiopsis jeanneneyi Becc.),.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Quelques Publications de C.D.Bacon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lanonia         A.J.Hend. &amp; C.D.Bacon, Syst. Bot. 36(4): 887 (2011).
 Lanonia acaulis (A.J.Hend., N.K.Ban &amp; N.Q.Dung) A.J.Hend. &amp; C.D.Bacon, Syst. Bot. 36(4): 888 (2011).
